--- a/data/trans_dic/P25A_4_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_4_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población con limitación por enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +705,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>34,12%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,26</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 5,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 3,98</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,34</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 4,63</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -806,12 +915,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,37 +930,67 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>45,05%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,17</t>
+          <t>0,0; 6,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 85,68</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,94</t>
+          <t>0,53; 4,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,73</t>
+          <t>0,61; 5,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 76,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,84</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 4,37</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,12</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -951,7 +1120,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +1130,67 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>0,38%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>84,59%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>0,55; 5,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,96</t>
+          <t>0,27; 3,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 100,0</t>
+          <t>0,24; 1,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,28; 2,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,05</t>
+          <t>0,39; 3,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,48</t>
+          <t>0,88; 5,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,83; 100,0</t>
+          <t>0,32; 3,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 1,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 1,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,33</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 2,66</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,85%</t>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,6</t>
+          <t>0,28; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,26; 2,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,58</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,29</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,0</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,9; 89,26</t>
+          <t>0,66; 3,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,73</t>
+          <t>0,31; 2,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,42</t>
+          <t>0,86; 5,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,16</t>
+          <t>1,7; 6,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 73,31</t>
+          <t>0,57; 3,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,78</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 2,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 3,28</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 4,52</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,39</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70,93%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>2,26%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>67,19%</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,16</t>
+          <t>0,52; 4,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,63</t>
+          <t>1,17; 5,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,26</t>
+          <t>1,98; 10,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,69; 87,84</t>
+          <t>3,48; 11,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,29</t>
+          <t>3,39; 10,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,22</t>
+          <t>1,37; 6,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,82</t>
+          <t>0,79; 5,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,67; 92,21</t>
+          <t>1,65; 6,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,92</t>
+          <t>0,3; 2,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,31</t>
+          <t>1,87; 7,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,86</t>
+          <t>2,49; 8,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,1; 82,5</t>
+          <t>1,01; 6,88</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 4,02</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 5,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 5,99</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 8,1</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 8,46</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 5,55</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,73</t>
+          <t>2,5; 11,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,67</t>
+          <t>4,49; 14,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,09</t>
+          <t>2,44; 10,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,8; 72,04</t>
+          <t>2,21; 10,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,54</t>
+          <t>1,53; 8,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,61</t>
+          <t>2,31; 11,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,66</t>
+          <t>1,47; 10,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>1,24; 7,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,43</t>
+          <t>2,61; 13,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,83</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,64</t>
+          <t>2,75; 10,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,31; 70,18</t>
+          <t>1,88; 8,96</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 9,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 8,71</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 10,91</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,81</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 8,43</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 8,05</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1905,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1511,47 +1920,77 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>55,9%</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,33</t>
+          <t>0,88; 2,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,19</t>
+          <t>1,21; 3,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,18</t>
+          <t>1,1; 3,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,5; 66,39</t>
+          <t>1,85; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,56</t>
+          <t>1,42; 3,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,57</t>
+          <t>1,03; 2,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,79</t>
+          <t>0,78; 2,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,81; 78,44</t>
+          <t>1,19; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,0</t>
+          <t>1,18; 3,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,59</t>
+          <t>1,3; 2,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,54</t>
+          <t>2,57; 4,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,72; 67,34</t>
+          <t>1,23; 3,0</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 2,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 2,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 2,76</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 3,21</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 3,87</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 2,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10051</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3225</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16712</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16454</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1637</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27182</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16464</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12062</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2460</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>328; 3827</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15464</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3238</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15095</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14664</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>250; 2322</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>282; 2580</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2088; 19776</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1676; 21806</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>739; 4245</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>290; 2968</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7816</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5330</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7801</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8840</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5330</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9469</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16655</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16288</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8666</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>327; 3021</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 22226</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1718; 12652</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1997; 19358</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>209; 1713</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>481; 2983</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2305; 22463</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15350</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1716; 14370</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3570; 21470</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>828; 3792</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>503; 3074</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6903; 34168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2926</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5870</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6003</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11178</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8074</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11155</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17048</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13659</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>15285</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14734</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1772; 17418</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1678; 14634</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1719</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2575</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13210</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 20360</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4452; 23242</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2075; 19100</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>451; 2710</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>912; 3642</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3795; 23751</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2362; 23633</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8695; 32658</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5642; 27548</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>851; 3630</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1518; 4984</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6741; 31528</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10488</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14522</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23070</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15443</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12116</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17351</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15596</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>22604</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>31873</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>27962</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>31039</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2580; 24004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5895; 28951</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9793; 52278</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1546; 4986</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1522; 4885</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6793; 31855</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3975; 27053</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8324; 32320</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1556; 13405</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>907; 3821</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1161; 4107</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5205; 35403</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10652; 40206</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>18365; 51549</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13201; 60386</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>3170; 7534</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>3271; 7742</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>16727; 56030</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30306</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44762</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28887</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2552</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28427</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31727</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22036</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40701</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34175</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>62033</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>66798</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>69588</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>5577</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>62602</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13626; 61024</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>23753; 76929</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12974; 56218</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1036; 5147</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>703; 3870</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13058; 62498</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10563; 76239</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8613; 54852</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18061; 92063</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1749; 6951</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13812; 65808</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>36200; 116718</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>41865; 106615</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>42079; 133696</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1529; 6383</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>3375; 9228</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>34699; 104727</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53538</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>67883</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>62271</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8514</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6693</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55816</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52880</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>63549</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>67660</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5923</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10712</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>69766</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>106419</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>131433</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>129931</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>14437</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>17405</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>125582</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>30216; 83407</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41560; 103956</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>38061; 107151</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5564; 12364</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4290; 10108</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>35375; 92701</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28084; 103769</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>42829; 100771</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>42599; 120867</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3935; 8570</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7805; 14818</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>44448; 108226</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>72021; 164580</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>95845; 183622</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>91709; 195088</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>10693; 19403</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>13576; 23410</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>91071; 174116</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
